--- a/StdCoreApp/wwwroot/uploaded/excels/ProductImportTemplate.xlsx
+++ b/StdCoreApp/wwwroot/uploaded/excels/ProductImportTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -54,10 +54,85 @@
     <t>Home Flag</t>
   </si>
   <si>
-    <t>Dép cười</t>
-  </si>
-  <si>
-    <t>dep-cuoi</t>
+    <t>Giày cam ghi</t>
+  </si>
+  <si>
+    <t>Giày nam cam ghi</t>
+  </si>
+  <si>
+    <t>giay-nam-cam-ghi</t>
+  </si>
+  <si>
+    <t>Giày nam đen vàng</t>
+  </si>
+  <si>
+    <t>giay-nam-den-vang</t>
+  </si>
+  <si>
+    <t>Giày nam HI</t>
+  </si>
+  <si>
+    <t>giay-nam-hi</t>
+  </si>
+  <si>
+    <t>Giày nam lười</t>
+  </si>
+  <si>
+    <t>giay-nam-luoi</t>
+  </si>
+  <si>
+    <t>Giày nam lười air</t>
+  </si>
+  <si>
+    <t>giay-nam-luoi-air</t>
+  </si>
+  <si>
+    <t>Giày nam lười levo</t>
+  </si>
+  <si>
+    <t>giay-nam-luoi-levo</t>
+  </si>
+  <si>
+    <t>Giày nam NY phản quang</t>
+  </si>
+  <si>
+    <t>giay-nam-ny-phan-quang</t>
+  </si>
+  <si>
+    <t>Giày nam V trắng</t>
+  </si>
+  <si>
+    <t>giay-nam-v-trang</t>
+  </si>
+  <si>
+    <t>Giày nam xin BE</t>
+  </si>
+  <si>
+    <t>giay-nam-xin-be</t>
+  </si>
+  <si>
+    <t>Giày nam xin đen</t>
+  </si>
+  <si>
+    <t>giay-nam-xin-den</t>
+  </si>
+  <si>
+    <t>Giày nam xin ghi</t>
+  </si>
+  <si>
+    <t>giay-nam-xin-ghi</t>
+  </si>
+  <si>
+    <t>Giày nam xịn kem</t>
+  </si>
+  <si>
+    <t>giay-nam-xin-kem</t>
+  </si>
+  <si>
+    <t>Giày nam xin xám phản quang</t>
+  </si>
+  <si>
+    <t>giay-nam-xin-xam-phan-quang</t>
   </si>
 </sst>
 </file>
@@ -395,21 +470,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -453,28 +528,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>95000</v>
+        <v>220000</v>
       </c>
       <c r="D2">
-        <v>95000</v>
+        <v>220000</v>
       </c>
       <c r="E2">
-        <v>95000</v>
+        <v>220000</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -483,6 +558,426 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>220000</v>
+      </c>
+      <c r="D3">
+        <v>220000</v>
+      </c>
+      <c r="E3">
+        <v>220000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>280000</v>
+      </c>
+      <c r="D4">
+        <v>280000</v>
+      </c>
+      <c r="E4">
+        <v>280000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>245000</v>
+      </c>
+      <c r="D5">
+        <v>245000</v>
+      </c>
+      <c r="E5">
+        <v>245000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>310000</v>
+      </c>
+      <c r="D6">
+        <v>310000</v>
+      </c>
+      <c r="E6">
+        <v>310000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>350000</v>
+      </c>
+      <c r="D7">
+        <v>350000</v>
+      </c>
+      <c r="E7">
+        <v>350000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>355000</v>
+      </c>
+      <c r="D8">
+        <v>355000</v>
+      </c>
+      <c r="E8">
+        <v>355000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>295000</v>
+      </c>
+      <c r="D9">
+        <v>295000</v>
+      </c>
+      <c r="E9">
+        <v>295000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>460000</v>
+      </c>
+      <c r="D10">
+        <v>460000</v>
+      </c>
+      <c r="E10">
+        <v>460000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>460000</v>
+      </c>
+      <c r="D11">
+        <v>460000</v>
+      </c>
+      <c r="E11">
+        <v>460000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>460000</v>
+      </c>
+      <c r="D12">
+        <v>460000</v>
+      </c>
+      <c r="E12">
+        <v>460000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>480000</v>
+      </c>
+      <c r="D13">
+        <v>480000</v>
+      </c>
+      <c r="E13">
+        <v>480000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>510000</v>
+      </c>
+      <c r="D14">
+        <v>510000</v>
+      </c>
+      <c r="E14">
+        <v>510000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
